--- a/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:59:20+00:00</t>
+    <t>2026-01-22T09:24:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -151,10 +151,7 @@
     <t>FRFamilyMemberHistoryDocument.status</t>
   </si>
   <si>
-    <t>FRCDAAntecedentsFamiliaux.subject.relatedSubject.code</t>
-  </si>
-  <si>
-    <t>FRFamilyMemberHistoryDocument.relationship.coding</t>
+    <t>FRFamilyMemberHistoryDocument.relationship</t>
   </si>
   <si>
     <t>FRCDAAntecedentsFamiliaux.subject.relatedSubject.subject.administrativeGenderCode</t>
@@ -191,9 +188,6 @@
   </si>
   <si>
     <t>FRFamilyMemberHistoryDocument.patient.multipleBirthInteger</t>
-  </si>
-  <si>
-    <t>FRFamilyMemberHistoryDocument.relationship</t>
   </si>
   <si>
     <t>FRFamilyMemberHistoryDocument.condition</t>
@@ -631,92 +625,92 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>32</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -729,7 +723,7 @@
         <v>32</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -742,7 +736,7 @@
         <v>32</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2"/>
     </row>

--- a/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T09:24:45+00:00</t>
+    <t>2026-01-22T13:29:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-22T13:29:51+00:00</t>
+    <t>2026-01-26T10:27:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T10:27:23+00:00</t>
+    <t>2026-02-03T11:02:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRFamilyMemberHistoriesLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-03T11:02:09+00:00</t>
+    <t>2026-02-04T10:58:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
